--- a/medicine/Sexualité et sexologie/Demandez_Angela/Demandez_Angela.xlsx
+++ b/medicine/Sexualité et sexologie/Demandez_Angela/Demandez_Angela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Demandez Angela est le nom d'une campagne lancée en Angleterre en 2016 et utilisée par les bars et autres lieux publics afin de protéger les personnes contre les agressions sexuelles en utilisant un nom de code pour identifier lorsqu'elles sont en danger ou dans une situation inconfortable. Lorsqu'un établissement utilise ce programme, une personne qui s'estime en danger peut demander à voir Angela, une employée fictive. Le personnel aidera ensuite la personne à rentrer chez elle discrètement et en toute sécurité, soit en l'escortant jusqu'à une autre chambre, en lui appelant un taxi et en l'y escortant, soit en demandant à l'autre accompagnant de quitter l'établissement[1].
-Des affiches sont placées sur les portes, à l'intérieur des toilettes, des établissements où la campagne est mise en œuvre. L'affiche présente "Angela" et pose plusieurs questions afin que la personne puisse identifier et réfléchir à la situation dans laquelle elle se trouve. Divers services et organisations locaux d'aide aux victimes sont également promus sur ces affiches[2]. La campagne n'est pas spécifique au genre de la victime et  vise à aider tout le monde, c'est pourquoi des affiches sont placées dans toutes les toilettes de l'établissement[2]. Tous les établissements publics, que ce soit dans le Lincolnshire ou dans le monde, ne sont pas nécessairement au courant de cette campagne. En ce sens, il est possible que certains personnels ne soient pas au courant du protocole à adopter. Le personnel des établissements publics participants a été formé et saura quoi faire[1].
-La campagne a débuté dans le Lincolnshire, en Angleterre, par l'initiative Hayley Crawford, coordonnatrice stratégique de la prévention de l'abus de substances et de la violence sexuelle pour le conseil du comté du Lincolnshire[3]. Crawford a lancé cette campagne dans le cadre d'une campagne beaucoup plus vaste, #NoMore, visant à réduire la violence et les abus sexuels dans le Lincolnshire. Tout le monde peut participer à la campagne #nomore en publiant une photo avec le hashtag #nomore, permettant de continuer à engendrer la discussion et de mettre en lumière ses phénomènes dans les divers cercles sociaux[4]. La campagne « Demandez Angela » est nommée en souvenir d'Angela Crompton[5], une femme qui a été maltraitée et tuée par son mari en 2012 lorsqu'une dispute concernant la redécoration de sa maison est devenue incontrôlable[6],[7]. Le nom de la campagne, « Angela », a également été inspiré par la signification du nom qui est « messagère de Dieu » ou « ange »[2].
-Demandez Angela a reçu un bon accueil public et a déclenché une campagne aux États-Unis qui a adopté une idée similaire en en changeant le nom de code. Dans cette campagne, les gens peuvent demander un « Angel Shot » et le faire « pur » (la victime est escortée jusqu'à sa voiture par le personnel), « avec des glaçons » (le personnel appelle un taxi pour la victime) ou « avec un citron vert » (le personnel appelle la police). En fonction du nom de code suivant la demande du "Angel Shot", les barmans agiront en conséquence, car le fait de commander le shot alerte le personnel que la personne ne se sent pas en sécurité et mal à l'aise[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Demandez Angela est le nom d'une campagne lancée en Angleterre en 2016 et utilisée par les bars et autres lieux publics afin de protéger les personnes contre les agressions sexuelles en utilisant un nom de code pour identifier lorsqu'elles sont en danger ou dans une situation inconfortable. Lorsqu'un établissement utilise ce programme, une personne qui s'estime en danger peut demander à voir Angela, une employée fictive. Le personnel aidera ensuite la personne à rentrer chez elle discrètement et en toute sécurité, soit en l'escortant jusqu'à une autre chambre, en lui appelant un taxi et en l'y escortant, soit en demandant à l'autre accompagnant de quitter l'établissement.
+Des affiches sont placées sur les portes, à l'intérieur des toilettes, des établissements où la campagne est mise en œuvre. L'affiche présente "Angela" et pose plusieurs questions afin que la personne puisse identifier et réfléchir à la situation dans laquelle elle se trouve. Divers services et organisations locaux d'aide aux victimes sont également promus sur ces affiches. La campagne n'est pas spécifique au genre de la victime et  vise à aider tout le monde, c'est pourquoi des affiches sont placées dans toutes les toilettes de l'établissement. Tous les établissements publics, que ce soit dans le Lincolnshire ou dans le monde, ne sont pas nécessairement au courant de cette campagne. En ce sens, il est possible que certains personnels ne soient pas au courant du protocole à adopter. Le personnel des établissements publics participants a été formé et saura quoi faire.
+La campagne a débuté dans le Lincolnshire, en Angleterre, par l'initiative Hayley Crawford, coordonnatrice stratégique de la prévention de l'abus de substances et de la violence sexuelle pour le conseil du comté du Lincolnshire. Crawford a lancé cette campagne dans le cadre d'une campagne beaucoup plus vaste, #NoMore, visant à réduire la violence et les abus sexuels dans le Lincolnshire. Tout le monde peut participer à la campagne #nomore en publiant une photo avec le hashtag #nomore, permettant de continuer à engendrer la discussion et de mettre en lumière ses phénomènes dans les divers cercles sociaux. La campagne « Demandez Angela » est nommée en souvenir d'Angela Crompton, une femme qui a été maltraitée et tuée par son mari en 2012 lorsqu'une dispute concernant la redécoration de sa maison est devenue incontrôlable,. Le nom de la campagne, « Angela », a également été inspiré par la signification du nom qui est « messagère de Dieu » ou « ange ».
+Demandez Angela a reçu un bon accueil public et a déclenché une campagne aux États-Unis qui a adopté une idée similaire en en changeant le nom de code. Dans cette campagne, les gens peuvent demander un « Angel Shot » et le faire « pur » (la victime est escortée jusqu'à sa voiture par le personnel), « avec des glaçons » (le personnel appelle un taxi pour la victime) ou « avec un citron vert » (le personnel appelle la police). En fonction du nom de code suivant la demande du "Angel Shot", les barmans agiront en conséquence, car le fait de commander le shot alerte le personnel que la personne ne se sent pas en sécurité et mal à l'aise.
 </t>
         </is>
       </c>
